--- a/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
+++ b/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
@@ -18,42 +18,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0232-0012地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區新東段0584-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目井段水裡社 小段0008-0002 ±也號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目井段水裡社 小段0008-0013地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目井段水裡社 小段0008-0014地號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02320012地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區新東段05840000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段水裡社小段00080002±也號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段水裡社小段00080013地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段水裡社小段00080014地號</t>
   </si>
   <si>
     <t>8分之1</t>
@@ -68,19 +89,19 @@
     <t>顏清標</t>
   </si>
   <si>
-    <t>83年06月 20日</t>
-  </si>
-  <si>
-    <t>83年12月 07日</t>
-  </si>
-  <si>
-    <t>83年11月 16日</t>
-  </si>
-  <si>
-    <t>CTT-t j=l=3- 貝賣</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
+    <t>83年06月20日</t>
+  </si>
+  <si>
+    <t>83年12月07日</t>
+  </si>
+  <si>
+    <t>83年11月16日</t>
+  </si>
+  <si>
+    <t>CTTtj=l=3貝賣</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
   </si>
   <si>
     <t>貝賣</t>
@@ -92,6 +113,18 @@
     <t>(超過五年）</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-30</t>
+  </si>
+  <si>
+    <t>tmp58751</t>
+  </si>
+  <si>
     <t>型式</t>
   </si>
   <si>
@@ -104,10 +137,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣 總 額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -131,22 +164,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及事</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -194,66 +227,63 @@
     <t>黃美貴</t>
   </si>
   <si>
-    <t>台灣金聯資產管理(股)公司 臺北市中山區南京東路</t>
-  </si>
-  <si>
-    <t>華南銀行清水分行 臺中市清水區中山路</t>
-  </si>
-  <si>
-    <t>國泰世華銀行 臺北市信義區松仁路</t>
-  </si>
-  <si>
-    <t>元營建設(股)公司 臺中市沙鹿區北勢東路</t>
-  </si>
-  <si>
-    <t>30,477,735</t>
-  </si>
-  <si>
-    <t>9,601,734</t>
-  </si>
-  <si>
-    <t>8,646,484</t>
-  </si>
-  <si>
-    <t>5,707,475</t>
-  </si>
-  <si>
-    <t>29,291,128</t>
-  </si>
-  <si>
-    <t>25,934,529</t>
-  </si>
-  <si>
-    <t>4,541,424</t>
-  </si>
-  <si>
-    <t>8,961,620</t>
-  </si>
-  <si>
-    <t>81,058,875</t>
-  </si>
-  <si>
-    <t>84年07月 06日</t>
-  </si>
-  <si>
-    <t>84年07月 08日</t>
-  </si>
-  <si>
-    <t>85年05月 30日</t>
-  </si>
-  <si>
-    <t>85年11月 16日</t>
-  </si>
-  <si>
-    <t>97年10月 23日</t>
+    <t>台灣金聯資產管理(股)公司臺北市中山區南京東路</t>
+  </si>
+  <si>
+    <t>華南銀行清水分行臺中市清水區中山路</t>
+  </si>
+  <si>
+    <t>國泰世華銀行臺北市信義區松仁路</t>
+  </si>
+  <si>
+    <t>元營建設(股)公司臺中市沙鹿區北勢東路</t>
+  </si>
+  <si>
+    <t>30477735</t>
+  </si>
+  <si>
+    <t>9601734</t>
+  </si>
+  <si>
+    <t>8646484</t>
+  </si>
+  <si>
+    <t>5707475</t>
+  </si>
+  <si>
+    <t>29291128</t>
+  </si>
+  <si>
+    <t>25934529</t>
+  </si>
+  <si>
+    <t>4541424</t>
+  </si>
+  <si>
+    <t>8961620</t>
+  </si>
+  <si>
+    <t>81058875</t>
+  </si>
+  <si>
+    <t>84年07月06日</t>
+  </si>
+  <si>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>85年05月30日</t>
+  </si>
+  <si>
+    <t>85年11月16日</t>
+  </si>
+  <si>
+    <t>97年10月23日</t>
   </si>
   <si>
     <t>如備註一</t>
   </si>
   <si>
-    <t>長期擔保放 款</t>
-  </si>
-  <si>
     <t>短期放款</t>
   </si>
   <si>
@@ -290,31 +320,31 @@
     <t>僑鴻建設股份有限公司</t>
   </si>
   <si>
-    <t>臺中市沙鹿區竹林里中山路 紅竹巷58號1樓</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區港埠路一段 229號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區埔子里正義路 1號</t>
-  </si>
-  <si>
-    <t>1,676,000</t>
-  </si>
-  <si>
-    <t>3,000,000</t>
-  </si>
-  <si>
-    <t>12,000,000</t>
-  </si>
-  <si>
-    <t>87年07月 15日</t>
-  </si>
-  <si>
-    <t>83年03月 16日</t>
-  </si>
-  <si>
-    <t>85年07月 13日</t>
+    <t>臺中市沙鹿區竹林里中山路紅竹巷58號1樓</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區港埠路一段229號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區埔子里正義路1號</t>
+  </si>
+  <si>
+    <t>1676000</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>12000000</t>
+  </si>
+  <si>
+    <t>87年07月15日</t>
+  </si>
+  <si>
+    <t>83年03月16日</t>
+  </si>
+  <si>
+    <t>85年07月13日</t>
   </si>
   <si>
     <t>合資公司</t>
@@ -676,13 +706,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,135 +734,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1081</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>979</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>91.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>979</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1527</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>979</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1693</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>979</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>191</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>979</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -850,16 +1006,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -867,16 +1023,16 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -894,22 +1050,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -917,14 +1073,14 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -934,22 +1090,22 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -967,20 +1123,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -988,22 +1144,22 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1011,22 +1167,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1034,22 +1190,22 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1057,22 +1213,22 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1080,22 +1236,22 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1103,22 +1259,22 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1126,22 +1282,22 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1149,22 +1305,22 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1172,22 +1328,22 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1195,22 +1351,22 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1228,22 +1384,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1251,22 +1407,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1274,22 +1430,22 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1297,22 +1453,22 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
+++ b/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市沙鹿區南勢坑段埔子小段02320012地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市龍井區新東段05840000地號</t>
@@ -77,9 +80,6 @@
     <t>臺中市龍井區龍目井段水裡社小段00080014地號</t>
   </si>
   <si>
-    <t>8分之1</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -89,18 +89,12 @@
     <t>顏清標</t>
   </si>
   <si>
-    <t>83年06月20日</t>
-  </si>
-  <si>
     <t>83年12月07日</t>
   </si>
   <si>
     <t>83年11月16日</t>
   </si>
   <si>
-    <t>CTTtj=l=3貝賣</t>
-  </si>
-  <si>
     <t>共有物分割</t>
   </si>
   <si>
@@ -125,87 +119,57 @@
     <t>tmp58751</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標不及编號</t>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
     <t>(九）珠寶古董字畫及事</t>
   </si>
   <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
     <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
     <t>價</t>
   </si>
   <si>
     <t>額</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>務</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
     <t>擔保放款</t>
   </si>
   <si>
+    <t>台灣金聯資產管理(股)公司臺北市中山區南京東路</t>
+  </si>
+  <si>
+    <t>30477735</t>
+  </si>
+  <si>
+    <t>84年07月06日</t>
+  </si>
+  <si>
+    <t>如備註一</t>
+  </si>
+  <si>
     <t>繼承保證債務</t>
   </si>
   <si>
@@ -227,9 +191,6 @@
     <t>黃美貴</t>
   </si>
   <si>
-    <t>台灣金聯資產管理(股)公司臺北市中山區南京東路</t>
-  </si>
-  <si>
     <t>華南銀行清水分行臺中市清水區中山路</t>
   </si>
   <si>
@@ -239,9 +200,6 @@
     <t>元營建設(股)公司臺中市沙鹿區北勢東路</t>
   </si>
   <si>
-    <t>30477735</t>
-  </si>
-  <si>
     <t>9601734</t>
   </si>
   <si>
@@ -266,9 +224,6 @@
     <t>81058875</t>
   </si>
   <si>
-    <t>84年07月06日</t>
-  </si>
-  <si>
     <t>84年07月08日</t>
   </si>
   <si>
@@ -281,9 +236,6 @@
     <t>97年10月23日</t>
   </si>
   <si>
-    <t>如備註一</t>
-  </si>
-  <si>
     <t>短期放款</t>
   </si>
   <si>
@@ -293,61 +245,43 @@
     <t>如備註二</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>天台砂石股份有限公司</t>
   </si>
   <si>
+    <t>臺中市沙鹿區竹林里中山路紅竹巷58號1樓</t>
+  </si>
+  <si>
+    <t>1676000</t>
+  </si>
+  <si>
+    <t>87年07月15日</t>
+  </si>
+  <si>
+    <t>合資公司</t>
+  </si>
+  <si>
     <t>天馬瀝青股份有限公司</t>
   </si>
   <si>
     <t>僑鴻建設股份有限公司</t>
   </si>
   <si>
-    <t>臺中市沙鹿區竹林里中山路紅竹巷58號1樓</t>
-  </si>
-  <si>
     <t>臺中市梧棲區港埠路一段229號</t>
   </si>
   <si>
     <t>臺中市沙鹿區埔子里正義路1號</t>
   </si>
   <si>
-    <t>1676000</t>
-  </si>
-  <si>
     <t>3000000</t>
   </si>
   <si>
     <t>12000000</t>
   </si>
   <si>
-    <t>87年07月15日</t>
-  </si>
-  <si>
     <t>83年03月16日</t>
   </si>
   <si>
     <t>85年07月13日</t>
-  </si>
-  <si>
-    <t>合資公司</t>
   </si>
 </sst>
 </file>
@@ -706,13 +640,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,19 +689,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1081</v>
+        <v>91.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -776,19 +716,19 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
@@ -797,24 +737,30 @@
         <v>979</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>91.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>91.84</v>
+        <v>1527</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -823,19 +769,19 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>22</v>
@@ -844,21 +790,27 @@
         <v>979</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>152.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1527</v>
+        <v>1693</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -867,22 +819,22 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>22</v>
@@ -891,21 +843,27 @@
         <v>979</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1693</v>
+        <v>191</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -914,22 +872,22 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>22</v>
@@ -938,57 +896,16 @@
         <v>979</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>191</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="2">
-        <v>979</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2">
-        <v>17</v>
+      <c r="P5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>19.1</v>
       </c>
     </row>
   </sheetData>
@@ -998,41 +915,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1041,6 +941,296 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1050,425 +1240,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>91</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>92</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>93</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>94</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>99</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
+++ b/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02320012地號</t>
+  </si>
+  <si>
     <t>臺中市龍井區新東段05840000地號</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>臺中市龍井區龍目井段水裡社小段00080014地號</t>
   </si>
   <si>
+    <t>8分之1</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -89,10 +95,16 @@
     <t>顏清標</t>
   </si>
   <si>
+    <t>83年06月20日</t>
+  </si>
+  <si>
     <t>83年12月07日</t>
   </si>
   <si>
     <t>83年11月16日</t>
+  </si>
+  <si>
+    <t>CTTtj=l=3貝賣</t>
   </si>
   <si>
     <t>共有物分割</t>
@@ -640,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,213 +710,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>91.84</v>
+        <v>1081</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>979</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="Q2" s="2">
-        <v>91.84</v>
+        <v>135.125</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1527</v>
+        <v>91.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>979</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>152.7</v>
+        <v>91.84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1693</v>
+        <v>1527</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>979</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.1</v>
       </c>
       <c r="Q4" s="2">
-        <v>169.3</v>
+        <v>152.7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>191</v>
+        <v>1693</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>979</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.1</v>
       </c>
       <c r="Q5" s="2">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>191</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>979</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>19.1</v>
       </c>
     </row>
@@ -915,24 +980,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -941,296 +1023,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>89</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>90</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>91</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>92</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>93</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>94</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1240,68 +1032,421 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>91</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>101</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
+++ b/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
@@ -8,17 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="航空器" sheetId="2" r:id="rId2"/>
-    <sheet name="其他有價證券" sheetId="3" r:id="rId3"/>
-    <sheet name="債務" sheetId="4" r:id="rId4"/>
-    <sheet name="事業投資" sheetId="5" r:id="rId5"/>
+    <sheet name="其他有價證券" sheetId="2" r:id="rId2"/>
+    <sheet name="債務" sheetId="3" r:id="rId3"/>
+    <sheet name="事業投資" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -131,40 +130,31 @@
     <t>tmp58751</t>
   </si>
   <si>
-    <t>幣別</t>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
   <si>
     <t>擔保放款</t>
@@ -980,50 +970,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1032,14 +978,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1049,16 +995,16 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1066,22 +1012,22 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1099,22 +1045,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1122,22 +1068,22 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1145,22 +1091,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1168,22 +1114,22 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1191,22 +1137,22 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1214,22 +1160,22 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1237,22 +1183,22 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1260,22 +1206,22 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1283,22 +1229,22 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1306,22 +1252,22 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1329,22 +1275,22 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1352,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1365,19 +1311,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1388,19 +1334,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1411,19 +1357,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1434,19 +1380,19 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
+++ b/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="其他有價證券" sheetId="2" r:id="rId2"/>
-    <sheet name="債務" sheetId="3" r:id="rId3"/>
-    <sheet name="事業投資" sheetId="4" r:id="rId4"/>
+    <sheet name="債務" sheetId="2" r:id="rId2"/>
+    <sheet name="事業投資" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -128,33 +127,6 @@
   </si>
   <si>
     <t>tmp58751</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>擔保放款</t>
@@ -970,7 +942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -981,53 +953,249 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>91</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1036,269 +1204,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>91</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>92</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>93</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>94</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1311,19 +1216,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1334,19 +1239,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1357,19 +1262,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1380,19 +1285,19 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
+++ b/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -129,87 +129,66 @@
     <t>tmp58751</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>擔保放款</t>
   </si>
   <si>
+    <t>繼承保證債務</t>
+  </si>
+  <si>
+    <t>繼承債務</t>
+  </si>
+  <si>
+    <t>借款債務</t>
+  </si>
+  <si>
+    <t>保證債務</t>
+  </si>
+  <si>
+    <t>長期擔保放款</t>
+  </si>
+  <si>
+    <t>債務</t>
+  </si>
+  <si>
+    <t>黃美貴</t>
+  </si>
+  <si>
     <t>台灣金聯資產管理(股)公司臺北市中山區南京東路</t>
   </si>
   <si>
-    <t>30477735</t>
+    <t>華南銀行清水分行臺中市清水區中山路</t>
+  </si>
+  <si>
+    <t>國泰世華銀行臺北市信義區松仁路</t>
+  </si>
+  <si>
+    <t>元營建設(股)公司臺中市沙鹿區北勢東路</t>
   </si>
   <si>
     <t>84年07月06日</t>
   </si>
   <si>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>85年05月30日</t>
+  </si>
+  <si>
+    <t>85年11月16日</t>
+  </si>
+  <si>
+    <t>97年10月23日</t>
+  </si>
+  <si>
     <t>如備註一</t>
   </si>
   <si>
-    <t>繼承保證債務</t>
-  </si>
-  <si>
-    <t>繼承債務</t>
-  </si>
-  <si>
-    <t>借款債務</t>
-  </si>
-  <si>
-    <t>保證債務</t>
-  </si>
-  <si>
-    <t>長期擔保放款</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>黃美貴</t>
-  </si>
-  <si>
-    <t>華南銀行清水分行臺中市清水區中山路</t>
-  </si>
-  <si>
-    <t>國泰世華銀行臺北市信義區松仁路</t>
-  </si>
-  <si>
-    <t>元營建設(股)公司臺中市沙鹿區北勢東路</t>
-  </si>
-  <si>
-    <t>9601734</t>
-  </si>
-  <si>
-    <t>8646484</t>
-  </si>
-  <si>
-    <t>5707475</t>
-  </si>
-  <si>
-    <t>29291128</t>
-  </si>
-  <si>
-    <t>25934529</t>
-  </si>
-  <si>
-    <t>4541424</t>
-  </si>
-  <si>
-    <t>8961620</t>
-  </si>
-  <si>
-    <t>81058875</t>
-  </si>
-  <si>
-    <t>84年07月08日</t>
-  </si>
-  <si>
-    <t>85年05月30日</t>
-  </si>
-  <si>
-    <t>85年11月16日</t>
-  </si>
-  <si>
-    <t>97年10月23日</t>
-  </si>
-  <si>
     <t>短期放款</t>
   </si>
   <si>
@@ -219,43 +198,46 @@
     <t>如備註二</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>天台砂石股份有限公司</t>
   </si>
   <si>
+    <t>天馬瀝青股份有限公司</t>
+  </si>
+  <si>
+    <t>僑鴻建設股份有限公司</t>
+  </si>
+  <si>
     <t>臺中市沙鹿區竹林里中山路紅竹巷58號1樓</t>
   </si>
   <si>
-    <t>1676000</t>
+    <t>臺中市梧棲區港埠路一段229號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區埔子里正義路1號</t>
   </si>
   <si>
     <t>87年07月15日</t>
   </si>
   <si>
+    <t>83年03月16日</t>
+  </si>
+  <si>
+    <t>85年07月13日</t>
+  </si>
+  <si>
     <t>合資公司</t>
   </si>
   <si>
-    <t>天馬瀝青股份有限公司</t>
-  </si>
-  <si>
-    <t>僑鴻建設股份有限公司</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區港埠路一段229號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區埔子里正義路1號</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>12000000</t>
-  </si>
-  <si>
-    <t>83年03月16日</t>
-  </si>
-  <si>
-    <t>85年07月13日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -942,260 +924,491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30477735</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>979</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9601734</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>979</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8646484</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>979</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5707475</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2">
+        <v>979</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="E6" s="2">
+        <v>29291128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2">
+        <v>979</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25934529</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2">
+        <v>979</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="E8" s="2">
+        <v>29291128</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2">
+        <v>979</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4541424</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>979</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2">
+        <v>8961620</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2">
+        <v>979</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>81058875</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2">
+        <v>979</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1205,33 +1418,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>99</v>
       </c>
@@ -1239,22 +1473,43 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1676000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>979</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -1262,22 +1517,43 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>979</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -1285,19 +1561,40 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>71</v>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>979</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
+++ b/legislator/property/output/normal/顏清標_2011-12-30_財產申報表_tmp58751.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="債務" sheetId="2" r:id="rId2"/>
-    <sheet name="事業投資" sheetId="3" r:id="rId3"/>
+    <sheet name="建物" sheetId="2" r:id="rId2"/>
+    <sheet name="債務" sheetId="3" r:id="rId3"/>
+    <sheet name="事業投資" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -102,18 +103,12 @@
     <t>83年11月16日</t>
   </si>
   <si>
-    <t>CTTtj=l=3貝賣</t>
+    <t>買賣</t>
   </si>
   <si>
     <t>共有物分割</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -127,6 +122,15 @@
   </si>
   <si>
     <t>tmp58751</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區屏西路</t>
+  </si>
+  <si>
+    <t>83年10月14日</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>species</t>
@@ -675,16 +679,16 @@
         <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -693,7 +697,7 @@
         <v>979</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
         <v>13</v>
@@ -728,16 +732,16 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -746,7 +750,7 @@
         <v>979</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2">
         <v>14</v>
@@ -778,19 +782,19 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
@@ -799,7 +803,7 @@
         <v>979</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2">
         <v>15</v>
@@ -831,19 +835,19 @@
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -852,7 +856,7 @@
         <v>979</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
         <v>16</v>
@@ -884,19 +888,19 @@
         <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
@@ -905,7 +909,7 @@
         <v>979</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2">
         <v>17</v>
@@ -923,6 +927,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>432</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>979</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -932,10 +1052,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -976,31 +1096,31 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>30477735</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -1009,7 +1129,7 @@
         <v>979</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
         <v>85</v>
@@ -1020,31 +1140,31 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>9601734</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -1053,7 +1173,7 @@
         <v>979</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
         <v>86</v>
@@ -1064,31 +1184,31 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
         <v>8646484</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -1097,7 +1217,7 @@
         <v>979</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
         <v>87</v>
@@ -1108,31 +1228,31 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
         <v>5707475</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>24</v>
@@ -1141,7 +1261,7 @@
         <v>979</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
         <v>88</v>
@@ -1152,31 +1272,31 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
         <v>29291128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>24</v>
@@ -1185,7 +1305,7 @@
         <v>979</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
         <v>89</v>
@@ -1196,31 +1316,31 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>25934529</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>24</v>
@@ -1229,7 +1349,7 @@
         <v>979</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
         <v>90</v>
@@ -1240,31 +1360,31 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>29291128</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>24</v>
@@ -1273,7 +1393,7 @@
         <v>979</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2">
         <v>91</v>
@@ -1284,31 +1404,31 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2">
         <v>4541424</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>24</v>
@@ -1317,7 +1437,7 @@
         <v>979</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
         <v>92</v>
@@ -1328,31 +1448,31 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2">
         <v>8961620</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>24</v>
@@ -1361,7 +1481,7 @@
         <v>979</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2">
         <v>93</v>
@@ -1372,31 +1492,31 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2">
         <v>81058875</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>24</v>
@@ -1405,7 +1525,7 @@
         <v>979</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N11" s="2">
         <v>94</v>
@@ -1416,7 +1536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -1429,10 +1549,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -1473,28 +1593,28 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>1676000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -1503,7 +1623,7 @@
         <v>979</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
         <v>99</v>
@@ -1517,28 +1637,28 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -1547,7 +1667,7 @@
         <v>979</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
         <v>100</v>
@@ -1561,28 +1681,28 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
         <v>12000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -1591,7 +1711,7 @@
         <v>979</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
         <v>101</v>
